--- a/public/excel/ifk.xlsx
+++ b/public/excel/ifk.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0467286-ADF6-0A47-A16D-7FFD4D3A8868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2828F4-DBBC-8C46-95C4-9028A48DD61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="920" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
-    <sheet name="IFK" sheetId="5" r:id="rId1"/>
+    <sheet name="REGULER" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AK1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/public/excel/ifk.xlsx
+++ b/public/excel/ifk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2828F4-DBBC-8C46-95C4-9028A48DD61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658A500-67D5-F94E-8E2F-97A29FC7BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1760" yWindow="920" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
@@ -708,6 +708,57 @@
     <xf numFmtId="165" fontId="14" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,119 +777,68 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:AN54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J4" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,7 +1180,7 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" customWidth="1"/>
+    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="37" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
@@ -1204,125 +1204,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="93"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="93"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
       <c r="AL2" s="2"/>
     </row>
     <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
-      <c r="M3" s="94"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="94"/>
-      <c r="P3" s="94"/>
-      <c r="Q3" s="94"/>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
-      <c r="W3" s="94"/>
-      <c r="X3" s="94"/>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="94"/>
-      <c r="AA3" s="94"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="94"/>
-      <c r="AD3" s="94"/>
-      <c r="AE3" s="94"/>
-      <c r="AF3" s="94"/>
-      <c r="AG3" s="94"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="94"/>
-      <c r="AJ3" s="94"/>
-      <c r="AK3" s="94"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="60"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="60"/>
+      <c r="V3" s="60"/>
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="60"/>
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="60"/>
+      <c r="AF3" s="60"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.2">
@@ -1335,184 +1335,184 @@
       <c r="O4"/>
     </row>
     <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="95" t="s">
+      <c r="A5" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="95" t="s">
+      <c r="E5" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="100" t="s">
+      <c r="H5" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="80" t="s">
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="O5" s="82" t="s">
+      <c r="O5" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="74" t="s">
+      <c r="P5" s="97"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="85" t="s">
+      <c r="S5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="69" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72"/>
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="69" t="s">
+      <c r="AG5" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="AH5" s="59" t="s">
+      <c r="AH5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="62" t="s">
+      <c r="AI5" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AJ5" s="62" t="s">
+      <c r="AJ5" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AK5" s="62" t="s">
+      <c r="AK5" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="89" t="s">
+      <c r="AL5" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="92" t="s">
+      <c r="AM5" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="AN5" s="92"/>
+      <c r="AN5" s="67"/>
     </row>
     <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="80" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="81"/>
-      <c r="O6" s="74" t="s">
+      <c r="N6" s="69"/>
+      <c r="O6" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="74" t="s">
+      <c r="P6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="74" t="s">
+      <c r="Q6" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="75"/>
-      <c r="S6" s="86" t="s">
+      <c r="R6" s="71"/>
+      <c r="S6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="89" t="s">
+      <c r="T6" s="83"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="90" t="s">
+      <c r="W6" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="90"/>
-      <c r="Y6" s="90"/>
-      <c r="Z6" s="91" t="s">
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AA6" s="72" t="s">
+      <c r="AA6" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="72" t="s">
+      <c r="AB6" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="AC6" s="73" t="s">
+      <c r="AC6" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="73" t="s">
+      <c r="AD6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="65" t="s">
+      <c r="AE6" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="AF6" s="70"/>
-      <c r="AG6" s="70"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="63"/>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="92"/>
-      <c r="AN6" s="92"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="66"/>
+      <c r="AM6" s="67"/>
+      <c r="AN6" s="67"/>
     </row>
     <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="76"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+      <c r="R7" s="99"/>
       <c r="S7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1522,7 +1522,7 @@
       <c r="U7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="V7" s="89"/>
+      <c r="V7" s="66"/>
       <c r="W7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1532,21 +1532,21 @@
       <c r="Y7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="71"/>
-      <c r="AG7" s="71"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="64"/>
-      <c r="AJ7" s="64"/>
-      <c r="AK7" s="63"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="102"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="80"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="67"/>
+      <c r="AN7" s="67"/>
     </row>
     <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
@@ -2686,10 +2686,10 @@
       <c r="O19"/>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="66"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -2766,28 +2766,28 @@
       <c r="W25" s="39"/>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
+      <c r="C26" s="100"/>
+      <c r="T26" s="101"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="101"/>
+      <c r="W26" s="101"/>
+      <c r="X26" s="101"/>
+      <c r="Y26" s="101"/>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="B27" s="40" t="s">
         <v>46</v>
       </c>
       <c r="C27" s="40"/>
-      <c r="T27" s="68"/>
-      <c r="U27" s="68"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="68"/>
-      <c r="X27" s="68"/>
-      <c r="Y27" s="68"/>
+      <c r="T27" s="101"/>
+      <c r="U27" s="101"/>
+      <c r="V27" s="101"/>
+      <c r="W27" s="101"/>
+      <c r="X27" s="101"/>
+      <c r="Y27" s="101"/>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="Z28" s="26"/>
@@ -3043,16 +3043,22 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="AK5:AK7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:R7"/>
     <mergeCell ref="AL5:AL7"/>
     <mergeCell ref="AM5:AN7"/>
     <mergeCell ref="J6:J7"/>
@@ -3069,25 +3075,19 @@
     <mergeCell ref="AI5:AI7"/>
     <mergeCell ref="AJ5:AJ7"/>
     <mergeCell ref="S6:U6"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A2:AK2"/>
+    <mergeCell ref="A3:AK3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/ifk.xlsx
+++ b/public/excel/ifk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/tpp/public/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/var/tpp/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A658A500-67D5-F94E-8E2F-97A29FC7BE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27584CE-CF6F-A449-A834-3994AA2AEB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="920" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
+    <workbookView xWindow="4100" yWindow="2240" windowWidth="28800" windowHeight="16080" xr2:uid="{8F073424-8FDC-4E4B-8D16-403F1B0F818F}"/>
   </bookViews>
   <sheets>
     <sheet name="REGULER" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t xml:space="preserve">DAFTAR TANDA TERIMA PEMBAYARAN TPP ASN </t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Disiplin dan Produktivitas</t>
-  </si>
-  <si>
-    <t>Pembayaran</t>
   </si>
   <si>
     <t>BPJS 1%</t>
@@ -568,7 +565,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -708,6 +705,108 @@
     <xf numFmtId="165" fontId="14" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -720,124 +819,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F73E71A-84E6-B149-ACE7-F6ACC942C3A7}">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1180,377 +1171,355 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="13" width="8.5" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="8.5" customWidth="1"/>
     <col min="14" max="14" width="14.1640625" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="37" customWidth="1"/>
     <col min="16" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="10" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1640625" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" customWidth="1"/>
-    <col min="23" max="25" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" customWidth="1"/>
+    <col min="21" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="13.5" customWidth="1"/>
+    <col min="25" max="25" width="12.5" customWidth="1"/>
     <col min="26" max="26" width="13.5" customWidth="1"/>
-    <col min="27" max="27" width="12.5" customWidth="1"/>
-    <col min="28" max="28" width="13.5" customWidth="1"/>
-    <col min="29" max="30" width="10.1640625" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="13.5" customWidth="1"/>
-    <col min="33" max="35" width="13" customWidth="1"/>
-    <col min="36" max="37" width="11.5" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17" customWidth="1"/>
+    <col min="27" max="28" width="10.1640625" customWidth="1"/>
+    <col min="29" max="29" width="13" customWidth="1"/>
+    <col min="30" max="30" width="13.5" customWidth="1"/>
+    <col min="31" max="33" width="13" customWidth="1"/>
+    <col min="34" max="35" width="11.5" customWidth="1"/>
+    <col min="36" max="36" width="13" customWidth="1"/>
+    <col min="37" max="37" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="1"/>
-    </row>
-    <row r="2" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-      <c r="X2" s="59"/>
-      <c r="Y2" s="59"/>
-      <c r="Z2" s="59"/>
-      <c r="AA2" s="59"/>
-      <c r="AB2" s="59"/>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="59"/>
-      <c r="AH2" s="59"/>
-      <c r="AI2" s="59"/>
-      <c r="AJ2" s="59"/>
-      <c r="AK2" s="59"/>
-      <c r="AL2" s="2"/>
-    </row>
-    <row r="3" spans="1:40" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="60"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="60"/>
-      <c r="AF3" s="60"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="2"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="93"/>
+      <c r="AB2" s="93"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="93"/>
+      <c r="AF2" s="93"/>
+      <c r="AG2" s="93"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="93"/>
+      <c r="AJ2" s="2"/>
+    </row>
+    <row r="3" spans="1:38" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="94"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="94"/>
+      <c r="P3" s="94"/>
+      <c r="Q3" s="94"/>
+      <c r="R3" s="94"/>
+      <c r="S3" s="94"/>
+      <c r="T3" s="94"/>
+      <c r="U3" s="94"/>
+      <c r="V3" s="94"/>
+      <c r="W3" s="94"/>
+      <c r="X3" s="94"/>
+      <c r="Y3" s="94"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="94"/>
+      <c r="AD3" s="94"/>
+      <c r="AE3" s="94"/>
+      <c r="AF3" s="94"/>
+      <c r="AG3" s="94"/>
+      <c r="AH3" s="94"/>
+      <c r="AI3" s="94"/>
+      <c r="AJ3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:38" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="78" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4"/>
-    </row>
-    <row r="5" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="92" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="93" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="96" t="s">
-        <v>12</v>
-      </c>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="98"/>
-      <c r="R5" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="72" t="s">
+      <c r="AE5" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG5" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="73" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG5" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="AH5" s="76" t="s">
+      <c r="AI5" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="AJ5" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK5" s="84" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="84"/>
+    </row>
+    <row r="6" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="76" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="77"/>
+      <c r="O6" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="82"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="U6" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y6" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB6" s="99" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="100" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="66"/>
+      <c r="AK6" s="84"/>
+      <c r="AL6" s="84"/>
+    </row>
+    <row r="7" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="95"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="66"/>
+      <c r="U7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="79" t="s">
-        <v>51</v>
-      </c>
-      <c r="AJ5" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK5" s="79" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL5" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM5" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN5" s="67"/>
-    </row>
-    <row r="6" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="68" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="70" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="71"/>
-      <c r="S6" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="T6" s="83"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="W6" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB6" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC6" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD6" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="74"/>
-      <c r="AG6" s="74"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-    </row>
-    <row r="7" spans="1:40" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="71"/>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="71"/>
-      <c r="R7" s="99"/>
-      <c r="S7" s="5" t="s">
+      <c r="V7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="W7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="X7" s="68"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="99"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="92"/>
+      <c r="AH7" s="92"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+    </row>
+    <row r="8" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="V7" s="66"/>
-      <c r="W7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="102"/>
-      <c r="AB7" s="102"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-    </row>
-    <row r="8" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="48"/>
@@ -1560,7 +1529,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
       <c r="I8" s="11">
-        <v>6348434</v>
+        <v>7856316</v>
       </c>
       <c r="J8" s="54">
         <v>0.34</v>
@@ -1576,7 +1545,7 @@
       </c>
       <c r="N8" s="14">
         <f>ROUND(I8*(SUM(J8:M8)),0)</f>
-        <v>5840559</v>
+        <v>7227811</v>
       </c>
       <c r="O8" s="57">
         <v>1</v>
@@ -1585,91 +1554,83 @@
         <v>10130</v>
       </c>
       <c r="Q8" s="58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R8" s="50"/>
       <c r="S8" s="15">
-        <f>I8*J8*40%*O8</f>
-        <v>863387.02400000009</v>
+        <f>I8*J8</f>
+        <v>2671147.4400000004</v>
       </c>
       <c r="T8" s="15">
-        <f>IF(P8&gt;=6750,(I8*J8*40%),0)</f>
-        <v>863387.02400000009</v>
+        <f>ROUND(SUM(S8:S8),0)</f>
+        <v>2671147</v>
       </c>
       <c r="U8" s="15">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*J8*10%,I8*J8*20%)))</f>
-        <v>431693.51200000005</v>
+        <f>I8*K8*40%*O8</f>
+        <v>1445562.1440000003</v>
       </c>
       <c r="V8" s="15">
-        <f>ROUND(SUM(S8:U8),0)</f>
-        <v>2158468</v>
+        <f>IF(P8&gt;=6750,(I8*K8*40%),0)</f>
+        <v>1445562.1440000003</v>
       </c>
       <c r="W8" s="15">
-        <f>I8*K8*40%*O8</f>
-        <v>1168111.8560000001</v>
+        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
+        <v>722781.07200000016</v>
       </c>
       <c r="X8" s="15">
-        <f t="shared" ref="X8:X17" si="0">IF(P8&gt;=6750,(I8*K8*40%),0)</f>
-        <v>1168111.8560000001</v>
+        <f>ROUND(SUM(U8:W8),0)</f>
+        <v>3613905</v>
       </c>
       <c r="Y8" s="15">
-        <f>IF(P8&lt;6750,0,IF(Q8="",0,IF(OR(Q8="KURANG",Q8="SANGAT KURANG"),I8*K8*10%,I8*K8*20%)))</f>
-        <v>584055.92800000007</v>
+        <f>I8*L8</f>
+        <v>942757.91999999993</v>
       </c>
       <c r="Z8" s="15">
-        <f>ROUND(SUM(W8:Y8),0)</f>
-        <v>2920280</v>
+        <f>ROUND(Y8,0)</f>
+        <v>942758</v>
       </c>
       <c r="AA8" s="15">
-        <f>I8*L8</f>
-        <v>761812.08</v>
+        <f>I8*M8</f>
+        <v>0</v>
       </c>
       <c r="AB8" s="15">
         <f>ROUND(AA8,0)</f>
-        <v>761812</v>
-      </c>
-      <c r="AC8" s="15">
-        <f>I8*M8</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="15">
-        <f>ROUND(AC8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="16">
+        <f>ROUND((T8+X8+Z8+AB8),0)</f>
+        <v>7227810</v>
+      </c>
+      <c r="AD8" s="16">
+        <f>AG8</f>
         <v>0</v>
       </c>
       <c r="AE8" s="16">
-        <f>ROUND((V8+Z8+AB8+AD8),0)</f>
-        <v>5840560</v>
+        <f>AI8</f>
+        <v>0</v>
       </c>
       <c r="AF8" s="16">
-        <f>AI8</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="16">
-        <f>AK8</f>
-        <v>0</v>
-      </c>
-      <c r="AH8" s="16">
-        <f>AE8+AF8+AG8</f>
-        <v>5840560</v>
-      </c>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="17">
-        <f>AJ8*4</f>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="15">
-        <f>AH8-AI8-AJ8-AK8</f>
-        <v>5840560</v>
-      </c>
-      <c r="AM8" s="18">
+        <f>AC8+AD8+AE8</f>
+        <v>7227810</v>
+      </c>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17">
+        <f>AH8*4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="15">
+        <f>AF8-AG8-AH8-AI8</f>
+        <v>7227810</v>
+      </c>
+      <c r="AK8" s="18">
         <v>1</v>
       </c>
-      <c r="AN8" s="22"/>
-    </row>
-    <row r="9" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL8" s="22"/>
+    </row>
+    <row r="9" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="47"/>
@@ -1684,7 +1645,7 @@
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="14">
-        <f t="shared" ref="N9:N17" si="1">ROUND(I9*(SUM(J9:M9)),0)</f>
+        <f t="shared" ref="N9:N17" si="0">ROUND(I9*(SUM(J9:M9)),0)</f>
         <v>0</v>
       </c>
       <c r="O9" s="53"/>
@@ -1692,87 +1653,79 @@
       <c r="Q9" s="52"/>
       <c r="R9" s="50"/>
       <c r="S9" s="15">
-        <f t="shared" ref="S9:S17" si="2">I9*J9*40%*O9</f>
+        <f t="shared" ref="S9:S17" si="1">I9*J9</f>
         <v>0</v>
       </c>
       <c r="T9" s="15">
-        <f t="shared" ref="T9:T17" si="3">IF(P9&gt;=6750,(I9*J9*40%),0)</f>
+        <f>ROUND(SUM(S9:S9),0)</f>
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" ref="U9:U17" si="4">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*J9*10%,I9*J9*20%)))</f>
+        <f>I9*K9*40%*O9</f>
         <v>0</v>
       </c>
       <c r="V9" s="15">
-        <f t="shared" ref="V9:V17" si="5">ROUND(SUM(S9:U9),0)</f>
+        <f>IF(P9&gt;=6750,(I9*K9*40%),0)</f>
         <v>0</v>
       </c>
       <c r="W9" s="15">
-        <f t="shared" ref="W9:W17" si="6">I9*K9*40%*O9</f>
+        <f>IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X9:X17" si="2">ROUND(SUM(U9:W9),0)</f>
         <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <f t="shared" ref="Y9:Y17" si="7">IF(P9&lt;6750,0,IF(Q9="",0,IF(OR(Q9="KURANG",Q9="SANGAT KURANG"),I9*K9*10%,I9*K9*20%)))</f>
+        <f>I9*L9</f>
         <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <f t="shared" ref="Z9:Z17" si="8">ROUND(SUM(W9:Y9),0)</f>
+        <f t="shared" ref="Z9:Z17" si="3">ROUND(Y9,0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <f t="shared" ref="AA9:AA17" si="9">I9*L9</f>
+        <f>I9*M9</f>
         <v>0</v>
       </c>
       <c r="AB9" s="15">
-        <f t="shared" ref="AB9:AB17" si="10">ROUND(AA9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9" s="15">
-        <f t="shared" ref="AC9:AC17" si="11">I9*M9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="15">
-        <f t="shared" ref="AD9:AD17" si="12">ROUND(AC9,0)</f>
+        <f t="shared" ref="AB9:AB17" si="4">ROUND(AA9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="16">
+        <f t="shared" ref="AC9:AC17" si="5">ROUND((T9+X9+Z9+AB9),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="16">
+        <f t="shared" ref="AD9:AD17" si="6">AG9</f>
         <v>0</v>
       </c>
       <c r="AE9" s="16">
-        <f t="shared" ref="AE9:AE17" si="13">ROUND((V9+Z9+AB9+AD9),0)</f>
+        <f t="shared" ref="AE9:AE17" si="7">AI9</f>
         <v>0</v>
       </c>
       <c r="AF9" s="16">
-        <f t="shared" ref="AF9:AF17" si="14">AI9</f>
-        <v>0</v>
-      </c>
-      <c r="AG9" s="16">
-        <f t="shared" ref="AG9:AG17" si="15">AK9</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16">
-        <f t="shared" ref="AH9:AH17" si="16">AE9+AF9+AG9</f>
-        <v>0</v>
-      </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17">
-        <f t="shared" ref="AK9:AK17" si="17">AJ9*4</f>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="15">
-        <f t="shared" ref="AL9:AL17" si="18">AH9-AI9-AJ9-AK9</f>
-        <v>0</v>
-      </c>
-      <c r="AM9" s="18">
+        <f t="shared" ref="AF9:AF17" si="8">AC9+AD9+AE9</f>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17">
+        <f t="shared" ref="AI9:AI17" si="9">AH9*4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="15">
+        <f t="shared" ref="AJ9:AJ17" si="10">AF9-AG9-AH9-AI9</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18">
         <v>2</v>
       </c>
-      <c r="AN9" s="22"/>
-    </row>
-    <row r="10" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL9" s="22"/>
+    </row>
+    <row r="10" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="47"/>
@@ -1787,7 +1740,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="53"/>
@@ -1795,87 +1748,79 @@
       <c r="Q10" s="51"/>
       <c r="R10" s="50"/>
       <c r="S10" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <f>ROUND(SUM(S10:S10),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <f>I10*K10*40%*O10</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <f>IF(P10&gt;=6750,(I10*K10*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <f>IF(P10&lt;6750,0,IF(Q10="",0,IF(OR(Q10="KURANG",Q10="SANGAT KURANG"),I10*K10*10%,I10*K10*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10" s="15">
+      <c r="Y10" s="15">
+        <f>I10*L10</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10" s="15">
+      <c r="AA10" s="15">
+        <f>I10*M10</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15">
+      <c r="AC10" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W10" s="15">
+      <c r="AD10" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X10" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15">
+      <c r="AE10" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="AF10" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="15">
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB10" s="15">
+      <c r="AJ10" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG10" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM10" s="18">
+      <c r="AK10" s="18">
         <v>3</v>
       </c>
-      <c r="AN10" s="22"/>
-    </row>
-    <row r="11" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL10" s="22"/>
+    </row>
+    <row r="11" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="47"/>
@@ -1890,7 +1835,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" s="53"/>
@@ -1898,87 +1843,79 @@
       <c r="Q11" s="51"/>
       <c r="R11" s="50"/>
       <c r="S11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="15">
+        <f>ROUND(SUM(S11:S11),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="15">
+        <f>I11*K11*40%*O11</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
+        <f>IF(P11&gt;=6750,(I11*K11*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="15">
+        <f>IF(P11&lt;6750,0,IF(Q11="",0,IF(OR(Q11="KURANG",Q11="SANGAT KURANG"),I11*K11*10%,I11*K11*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11" s="15">
+      <c r="Y11" s="15">
+        <f>I11*L11</f>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11" s="15">
+      <c r="AA11" s="15">
+        <f>I11*M11</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11" s="15">
+      <c r="AC11" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W11" s="15">
+      <c r="AD11" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X11" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="15">
+      <c r="AE11" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="AF11" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA11" s="15">
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="15">
+      <c r="AJ11" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC11" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="18">
+      <c r="AK11" s="18">
         <v>4</v>
       </c>
-      <c r="AN11" s="22"/>
-    </row>
-    <row r="12" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL11" s="22"/>
+    </row>
+    <row r="12" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="47"/>
@@ -1993,7 +1930,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
       <c r="N12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" s="53"/>
@@ -2001,87 +1938,79 @@
       <c r="Q12" s="51"/>
       <c r="R12" s="50"/>
       <c r="S12" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <f>ROUND(SUM(S12:S12),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <f>I12*K12*40%*O12</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <f>IF(P12&gt;=6750,(I12*K12*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <f>IF(P12&lt;6750,0,IF(Q12="",0,IF(OR(Q12="KURANG",Q12="SANGAT KURANG"),I12*K12*10%,I12*K12*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12" s="15">
+      <c r="Y12" s="15">
+        <f>I12*L12</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12" s="15">
+      <c r="AA12" s="15">
+        <f>I12*M12</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15">
+      <c r="AC12" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W12" s="15">
+      <c r="AD12" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X12" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="15">
+      <c r="AE12" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="AF12" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="15">
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB12" s="15">
+      <c r="AJ12" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH12" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM12" s="18">
+      <c r="AK12" s="18">
         <v>5</v>
       </c>
-      <c r="AN12" s="22"/>
-    </row>
-    <row r="13" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL12" s="22"/>
+    </row>
+    <row r="13" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="47"/>
@@ -2096,7 +2025,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" s="53"/>
@@ -2104,87 +2033,79 @@
       <c r="Q13" s="51"/>
       <c r="R13" s="50"/>
       <c r="S13" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="15">
+        <f>ROUND(SUM(S13:S13),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="15">
+        <f>I13*K13*40%*O13</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
+        <f>IF(P13&gt;=6750,(I13*K13*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="15">
+        <f>IF(P13&lt;6750,0,IF(Q13="",0,IF(OR(Q13="KURANG",Q13="SANGAT KURANG"),I13*K13*10%,I13*K13*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X13" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13" s="15">
+      <c r="Y13" s="15">
+        <f>I13*L13</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13" s="15">
+      <c r="AA13" s="15">
+        <f>I13*M13</f>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13" s="15">
+      <c r="AC13" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W13" s="15">
+      <c r="AD13" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X13" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="15">
+      <c r="AE13" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="AF13" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="15">
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB13" s="15">
+      <c r="AJ13" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH13" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM13" s="18">
+      <c r="AK13" s="18">
         <v>6</v>
       </c>
-      <c r="AN13" s="22"/>
-    </row>
-    <row r="14" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL13" s="22"/>
+    </row>
+    <row r="14" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="47"/>
@@ -2199,7 +2120,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
       <c r="N14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" s="53"/>
@@ -2207,87 +2128,79 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="50"/>
       <c r="S14" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="15">
+        <f>ROUND(SUM(S14:S14),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="15">
+        <f>I14*K14*40%*O14</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="15">
+        <f>IF(P14&gt;=6750,(I14*K14*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="15">
+        <f>IF(P14&lt;6750,0,IF(Q14="",0,IF(OR(Q14="KURANG",Q14="SANGAT KURANG"),I14*K14*10%,I14*K14*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="15">
+      <c r="Y14" s="15">
+        <f>I14*L14</f>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14" s="15">
+      <c r="AA14" s="15">
+        <f>I14*M14</f>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14" s="15">
+      <c r="AC14" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W14" s="15">
+      <c r="AD14" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X14" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
+      <c r="AE14" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="AF14" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AJ14" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC14" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM14" s="18">
+      <c r="AK14" s="18">
         <v>7</v>
       </c>
-      <c r="AN14" s="22"/>
-    </row>
-    <row r="15" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL14" s="22"/>
+    </row>
+    <row r="15" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="47"/>
@@ -2302,7 +2215,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
       <c r="N15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" s="53"/>
@@ -2310,87 +2223,79 @@
       <c r="Q15" s="51"/>
       <c r="R15" s="50"/>
       <c r="S15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="15">
+        <f>ROUND(SUM(S15:S15),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="15">
+        <f>I15*K15*40%*O15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
+        <f>IF(P15&gt;=6750,(I15*K15*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="15">
+        <f>IF(P15&lt;6750,0,IF(Q15="",0,IF(OR(Q15="KURANG",Q15="SANGAT KURANG"),I15*K15*10%,I15*K15*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T15" s="15">
+      <c r="Y15" s="15">
+        <f>I15*L15</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U15" s="15">
+      <c r="AA15" s="15">
+        <f>I15*M15</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V15" s="15">
+      <c r="AC15" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W15" s="15">
+      <c r="AD15" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="15">
+      <c r="AE15" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="AF15" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="AG15" s="16"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="AJ15" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL15" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM15" s="18">
+      <c r="AK15" s="18">
         <v>8</v>
       </c>
-      <c r="AN15" s="22"/>
-    </row>
-    <row r="16" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL15" s="22"/>
+    </row>
+    <row r="16" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="47"/>
@@ -2405,7 +2310,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" s="53"/>
@@ -2413,87 +2318,79 @@
       <c r="Q16" s="51"/>
       <c r="R16" s="50"/>
       <c r="S16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="15">
+        <f>ROUND(SUM(S16:S16),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="15">
+        <f>I16*K16*40%*O16</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
+        <f>IF(P16&gt;=6750,(I16*K16*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W16" s="15">
+        <f>IF(P16&lt;6750,0,IF(Q16="",0,IF(OR(Q16="KURANG",Q16="SANGAT KURANG"),I16*K16*10%,I16*K16*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X16" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T16" s="15">
+      <c r="Y16" s="15">
+        <f>I16*L16</f>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U16" s="15">
+      <c r="AA16" s="15">
+        <f>I16*M16</f>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V16" s="15">
+      <c r="AC16" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W16" s="15">
+      <c r="AD16" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X16" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="15">
+      <c r="AE16" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="15">
+      <c r="AF16" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="15">
+      <c r="AG16" s="16"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB16" s="15">
+      <c r="AJ16" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC16" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF16" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL16" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM16" s="18">
+      <c r="AK16" s="18">
         <v>9</v>
       </c>
-      <c r="AN16" s="32"/>
-    </row>
-    <row r="17" spans="1:40" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AL16" s="32"/>
+    </row>
+    <row r="17" spans="1:38" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="47"/>
@@ -2508,7 +2405,7 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="53"/>
@@ -2516,85 +2413,77 @@
       <c r="Q17" s="51"/>
       <c r="R17" s="50"/>
       <c r="S17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="15">
+        <f>ROUND(SUM(S17:S17),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="15">
+        <f>I17*K17*40%*O17</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
+        <f>IF(P17&gt;=6750,(I17*K17*40%),0)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="15">
+        <f>IF(P17&lt;6750,0,IF(Q17="",0,IF(OR(Q17="KURANG",Q17="SANGAT KURANG"),I17*K17*10%,I17*K17*20%)))</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T17" s="15">
+      <c r="Y17" s="15">
+        <f>I17*L17</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U17" s="15">
+      <c r="AA17" s="15">
+        <f>I17*M17</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="15">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V17" s="15">
+      <c r="AC17" s="16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W17" s="15">
+      <c r="AD17" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X17" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="15">
+      <c r="AE17" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Z17" s="15">
+      <c r="AF17" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA17" s="15">
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AB17" s="15">
+      <c r="AJ17" s="15">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AC17" s="15">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="15">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AF17" s="16">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="16">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="16">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="15">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AM17" s="18">
+      <c r="AK17" s="18">
         <v>10</v>
       </c>
-      <c r="AN17" s="22"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AL17" s="22"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
@@ -2615,63 +2504,61 @@
       <c r="Q18" s="30"/>
       <c r="R18" s="30"/>
       <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
+      <c r="T18" s="30">
+        <f>SUM(T8:T17)</f>
+        <v>2671147</v>
+      </c>
       <c r="U18" s="31"/>
-      <c r="V18" s="30">
-        <f>SUM(V8:V17)</f>
-        <v>2158468</v>
-      </c>
+      <c r="V18" s="31"/>
       <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
+      <c r="X18" s="30">
+        <f>SUM(X8:X17)</f>
+        <v>3613905</v>
+      </c>
       <c r="Y18" s="31"/>
       <c r="Z18" s="30">
         <f>SUM(Z8:Z17)</f>
-        <v>2920280</v>
+        <v>942758</v>
       </c>
       <c r="AA18" s="31"/>
       <c r="AB18" s="30">
-        <f>SUM(AB8:AB17)</f>
-        <v>761812</v>
-      </c>
-      <c r="AC18" s="31"/>
+        <f t="shared" ref="AB18:AJ18" si="11">SUM(AB8:AB17)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="30">
+        <f t="shared" si="11"/>
+        <v>7227810</v>
+      </c>
       <c r="AD18" s="30">
-        <f t="shared" ref="AD18:AL18" si="19">SUM(AD8:AD17)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE18" s="30">
-        <f t="shared" si="19"/>
-        <v>5840560</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AF18" s="30">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>7227810</v>
       </c>
       <c r="AG18" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AH18" s="30">
-        <f t="shared" si="19"/>
-        <v>5840560</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AI18" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="30">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AK18" s="30">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="30">
-        <f t="shared" si="19"/>
-        <v>5840560</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>7227810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
@@ -2685,11 +2572,11 @@
       <c r="M19" s="26"/>
       <c r="O19"/>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B20" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="87"/>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B20" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="63"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -2701,9 +2588,9 @@
       <c r="M20" s="26"/>
       <c r="O20"/>
     </row>
-    <row r="21" spans="1:40" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:38" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="34"/>
       <c r="D21" s="26"/>
@@ -2716,10 +2603,10 @@
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="O21"/>
-      <c r="AC21" s="26"/>
-      <c r="AD21" s="26"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="26"/>
@@ -2732,10 +2619,10 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="O22"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="26"/>
@@ -2748,319 +2635,313 @@
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="O23"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="26"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
       <c r="O24"/>
-      <c r="AD24" s="26"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AB24" s="26"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B26" s="100" t="s">
+      <c r="S25" s="38"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B26" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="S26" s="61"/>
+      <c r="T26" s="61"/>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61"/>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="B27" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="T26" s="101"/>
-      <c r="U26" s="101"/>
-      <c r="V26" s="101"/>
-      <c r="W26" s="101"/>
-      <c r="X26" s="101"/>
-      <c r="Y26" s="101"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="B27" s="40" t="s">
-        <v>46</v>
-      </c>
       <c r="C27" s="40"/>
-      <c r="T27" s="101"/>
-      <c r="U27" s="101"/>
-      <c r="V27" s="101"/>
-      <c r="W27" s="101"/>
-      <c r="X27" s="101"/>
-      <c r="Y27" s="101"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="S27" s="61"/>
+      <c r="T27" s="61"/>
+      <c r="U27" s="61"/>
+      <c r="V27" s="61"/>
+      <c r="W27" s="61"/>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
       <c r="Z28" s="26"/>
       <c r="AA28" s="26"/>
       <c r="AB28" s="26"/>
-      <c r="AC28" s="26"/>
-      <c r="AD28" s="26"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
       <c r="X29" s="26"/>
       <c r="Y29" s="26"/>
       <c r="Z29" s="26"/>
       <c r="AA29" s="26"/>
       <c r="AB29" s="26"/>
-      <c r="AC29" s="26"/>
-      <c r="AD29" s="26"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-    </row>
-    <row r="33" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="26"/>
-      <c r="AD33" s="26"/>
-    </row>
-    <row r="34" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="26"/>
       <c r="Z34" s="26"/>
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="26"/>
-      <c r="AD34" s="26"/>
-    </row>
-    <row r="35" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V35" s="42"/>
-      <c r="X35" s="26"/>
+    </row>
+    <row r="35" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T35" s="42"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="42"/>
       <c r="Y35" s="26"/>
       <c r="Z35" s="42"/>
       <c r="AA35" s="26"/>
       <c r="AB35" s="42"/>
-      <c r="AC35" s="26"/>
-      <c r="AD35" s="42"/>
-    </row>
-    <row r="36" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+    </row>
+    <row r="36" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
       <c r="X36" s="41"/>
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
       <c r="AA36" s="41"/>
       <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-    </row>
-    <row r="37" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="41"/>
+    </row>
+    <row r="37" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="43"/>
       <c r="Y37" s="41"/>
       <c r="Z37" s="43"/>
       <c r="AA37" s="41"/>
       <c r="AB37" s="43"/>
-      <c r="AC37" s="41"/>
-      <c r="AD37" s="43"/>
-    </row>
-    <row r="38" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V38" s="43"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="45"/>
+    </row>
+    <row r="38" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T38" s="43"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="45"/>
+      <c r="W38" s="45"/>
+      <c r="X38" s="43"/>
       <c r="Y38" s="45"/>
       <c r="Z38" s="43"/>
       <c r="AA38" s="45"/>
       <c r="AB38" s="43"/>
-      <c r="AC38" s="45"/>
-      <c r="AD38" s="43"/>
-    </row>
-    <row r="39" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
+    </row>
+    <row r="39" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
       <c r="X39" s="45"/>
       <c r="Y39" s="45"/>
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
       <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-    </row>
-    <row r="40" spans="22:30" x14ac:dyDescent="0.2">
-      <c r="V40" s="44"/>
-      <c r="W40" s="44"/>
+    </row>
+    <row r="40" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="45"/>
       <c r="X40" s="45"/>
       <c r="Y40" s="45"/>
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
       <c r="AB40" s="45"/>
-      <c r="AC40" s="45"/>
-      <c r="AD40" s="45"/>
-    </row>
-    <row r="41" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="26"/>
       <c r="Z41" s="26"/>
       <c r="AA41" s="26"/>
       <c r="AB41" s="26"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="26"/>
-    </row>
-    <row r="42" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
       <c r="X42" s="26"/>
       <c r="Y42" s="26"/>
       <c r="Z42" s="26"/>
       <c r="AA42" s="26"/>
       <c r="AB42" s="26"/>
-      <c r="AC42" s="26"/>
-      <c r="AD42" s="26"/>
-    </row>
-    <row r="43" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
       <c r="Z43" s="26"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
-      <c r="AC43" s="26"/>
-      <c r="AD43" s="26"/>
-    </row>
-    <row r="44" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
       <c r="X44" s="26"/>
       <c r="Y44" s="26"/>
       <c r="Z44" s="26"/>
       <c r="AA44" s="26"/>
       <c r="AB44" s="26"/>
-      <c r="AC44" s="26"/>
-      <c r="AD44" s="26"/>
-    </row>
-    <row r="45" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
       <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
-      <c r="AC45" s="26"/>
-      <c r="AD45" s="26"/>
-    </row>
-    <row r="46" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
       <c r="X46" s="26"/>
       <c r="Y46" s="26"/>
       <c r="Z46" s="26"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="26"/>
-      <c r="AC46" s="26"/>
-      <c r="AD46" s="26"/>
-    </row>
-    <row r="47" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
       <c r="Z47" s="26"/>
       <c r="AA47" s="26"/>
       <c r="AB47" s="26"/>
-      <c r="AC47" s="26"/>
-      <c r="AD47" s="26"/>
-    </row>
-    <row r="48" spans="22:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="20:28" x14ac:dyDescent="0.2">
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
       <c r="X48" s="26"/>
       <c r="Y48" s="26"/>
       <c r="Z48" s="26"/>
       <c r="AA48" s="26"/>
       <c r="AB48" s="26"/>
-      <c r="AC48" s="26"/>
-      <c r="AD48" s="26"/>
-    </row>
-    <row r="49" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
-      <c r="AC49" s="26"/>
-      <c r="AD49" s="26"/>
-    </row>
-    <row r="50" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
       <c r="X50" s="26"/>
       <c r="Y50" s="26"/>
       <c r="Z50" s="26"/>
       <c r="AA50" s="26"/>
       <c r="AB50" s="26"/>
-      <c r="AC50" s="26"/>
-      <c r="AD50" s="26"/>
-    </row>
-    <row r="51" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
       <c r="X51" s="26"/>
       <c r="Y51" s="26"/>
       <c r="Z51" s="26"/>
       <c r="AA51" s="26"/>
       <c r="AB51" s="26"/>
-      <c r="AC51" s="26"/>
-      <c r="AD51" s="26"/>
-    </row>
-    <row r="52" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V52" s="26"/>
+      <c r="W52" s="26"/>
       <c r="X52" s="26"/>
       <c r="Y52" s="26"/>
       <c r="Z52" s="26"/>
       <c r="AA52" s="26"/>
       <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-    </row>
-    <row r="53" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V53" s="26"/>
+      <c r="W53" s="26"/>
       <c r="X53" s="26"/>
       <c r="Y53" s="26"/>
       <c r="Z53" s="26"/>
       <c r="AA53" s="26"/>
       <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-    </row>
-    <row r="54" spans="24:30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="22:28" x14ac:dyDescent="0.2">
+      <c r="V54" s="26"/>
+      <c r="W54" s="26"/>
       <c r="X54" s="26"/>
       <c r="Y54" s="26"/>
       <c r="Z54" s="26"/>
       <c r="AA54" s="26"/>
       <c r="AB54" s="26"/>
-      <c r="AC54" s="26"/>
-      <c r="AD54" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="T27:Y27"/>
+  <mergeCells count="44">
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A3:AI3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="AK5:AK7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="AL5:AL7"/>
-    <mergeCell ref="AM5:AN7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AJ5:AJ7"/>
+    <mergeCell ref="AK5:AL7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -3068,26 +2949,28 @@
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="P6:P7"/>
     <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="S5:AE5"/>
+    <mergeCell ref="S5:AC5"/>
+    <mergeCell ref="AD5:AD7"/>
+    <mergeCell ref="AE5:AE7"/>
     <mergeCell ref="AF5:AF7"/>
     <mergeCell ref="AG5:AG7"/>
     <mergeCell ref="AH5:AH7"/>
     <mergeCell ref="AI5:AI7"/>
-    <mergeCell ref="AJ5:AJ7"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A2:AK2"/>
-    <mergeCell ref="A3:AK3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="S26:W26"/>
+    <mergeCell ref="S27:W27"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
